--- a/biology/Zoologie/Copeina/Copeina.xlsx
+++ b/biology/Zoologie/Copeina/Copeina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copeina est un genre de poissons téléostéens de la famille des Lebiasinidae et de l'ordre des Characiformes. Il regroupe des espèces de poissons américains.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Copeina comprend des poissons tropicaux d'eau douce qui font partie de la famille des Characidae, caractérisés par leur corps élancé et leur comportement vif. Ces poissons, souvent remarquables pour leurs couleurs vibrantes et leurs motifs distinctifs, sont adaptés à la vie dans des environnements aquatiques variés allant des ruisseaux clairs et rapides aux zones plus calmes des rivières et des lacs. La taille des espèces de Copeina peut varier, mais la plupart restent de taille modeste, ce qui les rend adaptés à la vie en aquarium. Leurs nageoires sont généralement bien développées, avec des nageoires caudales souvent fourchues ou arrondies, ce qui leur confère une grande agilité dans l'eau. Ces poissons sont appréciés en aquariophilie pour leur comportement actif et leur capacité à ajouter de la couleur et du dynamisme à un aquarium communautaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces proches de Copeina appartiennent principalement au groupe des characidés, une famille qui comprend un large éventail de poissons tropicaux d'eau douce réputés pour leur diversité et leur adaptabilité écologique. Parmi ces proches parents, on trouve les genres Hemigrammus, Hyphessobrycon, et Moenkhausia, qui partagent des traits communs comme des corps élancés, une nage vive, et souvent des marques ou des couleurs vives. Ces genres se distinguent par des caractéristiques spécifiques, telles que des motifs de couleur, la forme des nageoires, et la présence de structures anatomiques distinctives. Les membres de ces genres cohabitent souvent dans les mêmes habitats, allant des cours d'eau lents aux rivières plus rapides, montrant une grande variété de stratégies alimentaires et reproductives, ce qui souligne la richesse et la complexité des écosystèmes aquatiques où ils évoluent.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Copeina sont principalement répartis dans les cours d'eau tropicaux de l'Amérique du Sud, notamment dans le bassin de l'Amazone, le bassin de l'Orénoque, et les systèmes fluviaux du Guyana. Ils habitent des environnements diversifiés allant des petits ruisseaux et affluents avec des courants modérés aux grandes rivières, préférant souvent des zones où la végétation aquatique est abondante. Cette préférence pour les habitats bien plantés leur offre non seulement un abri contre les prédateurs, mais aussi une riche source de nourriture sous forme de petits invertébrés et de matières organiques. Leur adaptation à ces milieux variés est un témoignage de la flexibilité écologique du genre Copeina, leur permettant de prospérer dans un large éventail de conditions d'eau douce tropicale.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Copeina, connus pour leur comportement paisible et grégaire, sont des habitants typiques des eaux douces tropicales d'Amérique du Sud. Ils préfèrent les zones d'eau douce avec une abondance de végétation aquatique, où ils peuvent trouver à la fois abri et nourriture. Ces poissons tendent à se déplacer en groupes, explorant leur environnement à la recherche de nourriture, tout en restant relativement proches de la protection offerte par les plantes aquatiques ou les racines submergées. Leur nature pacifique les rend compatibles avec de nombreuses autres espèces dans les aquariums communautaires. En milieu naturel, leur habitat varie des ruisseaux clairs et ombrophiles aux rivières plus vastes et plus lentes, toujours avec une préférence pour les zones bien oxygénées et riches en cachettes naturelles. Cette combinaison de comportement social et d'adaptabilité aux différents types d'habitats aquatiques témoigne de leur résilience et de leur capacité à coexister dans des écosystèmes divers.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Copeina sont essentiellement insectivores, privilégiant une alimentation basée sur une large variété d'insectes aquatiques et terrestres. Leur régime inclut également des petits crustacés, des larves d'insectes, et occasionnellement des matières végétales, ce qui témoigne de leur capacité à s'adapter aux ressources disponibles dans leur milieu naturel. Vivant dans des cours d'eau tropicaux où la diversité biologique est riche, ces poissons exploitent efficacement les ressources alimentaires fluctuantes, ce qui contribue à leur survie et à leur succès écologique. Leur comportement alimentaire agile leur permet de tirer profit des différentes strates de leur habitat, depuis la surface jusqu'au fond, là où les insectes et autres petites proies abondent.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Copeina est caractérisée par des comportements de frai complexes et souvent spectaculaires, adaptés à leurs environnements aquatiques tropicaux. Typiquement, ces poissons pratiquent la ponte libre, où les œufs sont déposés sur des substrats variés, allant de la végétation aquatique jusqu'aux racines ou sous des abris naturels. Les mâles peuvent présenter des comportements de parade nuptiale pour attirer les femelles, utilisant leurs couleurs vives et des mouvements spécifiques. Une fois les œufs pondus et fécondés, la survie des larves et des jeunes poissons dépend fortement de la qualité de l'eau et de la disponibilité en nourriture. Les stratégies reproductives peuvent varier en fonction des conditions environnementales, avec certains membres du genre développant des soins parentaux pour augmenter le taux de survie de leur progéniture. Cette capacité d'adaptation reproductive assure la perpétuation des populations de Copeina dans des habitats variés et parfois changeants.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des poissons du genre Copeina demande une attention particulière à leur environnement aquatique pour reproduire au mieux leur habitat naturel. Il est recommandé d'utiliser un aquarium spacieux, doté d'une filtration efficace pour maintenir une eau propre et bien oxygénée, avec un pH et une température adaptés à l'espèce spécifique. La décoration de l'aquarium devrait inclure des plantes aquatiques, des racines, et des roches pour fournir des cachettes et des zones ombragées, imitant ainsi leur environnement naturel et favorisant un comportement normal. Une alimentation variée, composée de nourritures vivantes, congelées, et de substituts secs de haute qualité, est essentielle pour leur bien-être et leur santé. Les changements d'eau réguliers sont également cruciaux pour éliminer les déchets et maintenir une eau de qualité. En respectant ces conditions, les aquariophiles peuvent réussir la maintenance des Copeina, en observant leur comportement naturel et en promouvant leur santé dans un environnement captif.
 </t>
@@ -728,7 +754,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élevage des poissons Copeina en captivité nécessite une approche détaillée pour simuler leurs conditions de reproduction naturelles et encourager le frai. Cela commence par la sélection soigneuse de poissons sains et la formation de paires ou de groupes, en fonction des spécificités de l'espèce. Les aquariophiles expérimentés ajustent souvent les paramètres de l'eau, tels que la température, le pH et la dureté, pour encourager les comportements de reproduction et peuvent même recréer des conditions saisonnières de pluie ou de débit d'eau. La fourniture d'une alimentation riche et variée est cruciale pour conditionner les poissons pour la reproduction. Des zones de frai spécifiques, comme des substrats pour pondre ou des plantes aquatiques, doivent être fournies pour supporter le dépôt des œufs. Après la ponte, une attention particulière peut être nécessaire pour protéger les œufs et les alevins des adultes, ce qui peut inclure leur transfert à un bac d'élevage spécifique où ils seront élevés dans des conditions contrôlées, avec une alimentation appropriée pour les jeunes poissons. Réussir l'élevage de Copeina demande patience, observation attentive, et adaptation aux besoins spécifiques des poissons tout au long du processus de reproduction.
 </t>
@@ -759,9 +787,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (25 juin 2015)[1] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (25 juin 2015) :
 Copeina guttata (Steindachner, 1876)
 Copeina osgoodi Eigenmann, 1922</t>
         </is>
